--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Kit</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>90.5609256503343</v>
+        <v>97.82297766666666</v>
       </c>
       <c r="H2">
-        <v>90.5609256503343</v>
+        <v>293.468933</v>
       </c>
       <c r="I2">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="J2">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.5884755452996</v>
+        <v>13.34532166666667</v>
       </c>
       <c r="N2">
-        <v>4.5884755452996</v>
+        <v>40.035965</v>
       </c>
       <c r="O2">
-        <v>0.5465859877223104</v>
+        <v>0.7382137387678421</v>
       </c>
       <c r="P2">
-        <v>0.5465859877223104</v>
+        <v>0.7382137387678421</v>
       </c>
       <c r="Q2">
-        <v>415.5365927062542</v>
+        <v>1305.479103352816</v>
       </c>
       <c r="R2">
-        <v>415.5365927062542</v>
+        <v>11749.31193017535</v>
       </c>
       <c r="S2">
-        <v>0.3859012005563325</v>
+        <v>0.5192690846142751</v>
       </c>
       <c r="T2">
-        <v>0.3859012005563325</v>
+        <v>0.5192690846142751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>90.5609256503343</v>
+        <v>97.82297766666666</v>
       </c>
       <c r="H3">
-        <v>90.5609256503343</v>
+        <v>293.468933</v>
       </c>
       <c r="I3">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="J3">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.86929795034105</v>
+        <v>0.5919546666666666</v>
       </c>
       <c r="N3">
-        <v>1.86929795034105</v>
+        <v>1.775864</v>
       </c>
       <c r="O3">
-        <v>0.2226735342593485</v>
+        <v>0.03274473846161108</v>
       </c>
       <c r="P3">
-        <v>0.2226735342593485</v>
+        <v>0.03274473846161108</v>
       </c>
       <c r="Q3">
-        <v>169.2853526991581</v>
+        <v>57.90676813701243</v>
       </c>
       <c r="R3">
-        <v>169.2853526991581</v>
+        <v>521.160913233112</v>
       </c>
       <c r="S3">
-        <v>0.1572121974090203</v>
+        <v>0.0230330722309165</v>
       </c>
       <c r="T3">
-        <v>0.1572121974090203</v>
+        <v>0.0230330722309165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>90.5609256503343</v>
+        <v>97.82297766666666</v>
       </c>
       <c r="H4">
-        <v>90.5609256503343</v>
+        <v>293.468933</v>
       </c>
       <c r="I4">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="J4">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.79241832736074</v>
+        <v>1.903091</v>
       </c>
       <c r="N4">
-        <v>1.79241832736074</v>
+        <v>5.709273</v>
       </c>
       <c r="O4">
-        <v>0.2135155199586167</v>
+        <v>0.1052719415399702</v>
       </c>
       <c r="P4">
-        <v>0.2135155199586167</v>
+        <v>0.1052719415399702</v>
       </c>
       <c r="Q4">
-        <v>162.3230628784125</v>
+        <v>186.1660283906343</v>
       </c>
       <c r="R4">
-        <v>162.3230628784125</v>
+        <v>1675.494255515709</v>
       </c>
       <c r="S4">
-        <v>0.1507464467444425</v>
+        <v>0.07404964422670957</v>
       </c>
       <c r="T4">
-        <v>0.1507464467444425</v>
+        <v>0.07404964422670957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>90.5609256503343</v>
+        <v>97.82297766666666</v>
       </c>
       <c r="H5">
-        <v>90.5609256503343</v>
+        <v>293.468933</v>
       </c>
       <c r="I5">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="J5">
-        <v>0.7060210272942218</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.144599935968374</v>
+        <v>2.068965333333333</v>
       </c>
       <c r="N5">
-        <v>0.144599935968374</v>
+        <v>6.206896</v>
       </c>
       <c r="O5">
-        <v>0.01722495805972437</v>
+        <v>0.1144474949536789</v>
       </c>
       <c r="P5">
-        <v>0.01722495805972437</v>
+        <v>0.1144474949536789</v>
       </c>
       <c r="Q5">
-        <v>13.09510405027502</v>
+        <v>202.3923495957742</v>
       </c>
       <c r="R5">
-        <v>13.09510405027502</v>
+        <v>1821.531146361968</v>
       </c>
       <c r="S5">
-        <v>0.01216118258442649</v>
+        <v>0.08050384708389083</v>
       </c>
       <c r="T5">
-        <v>0.01216118258442649</v>
+        <v>0.08050384708389083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5377970505588</v>
+        <v>97.82297766666666</v>
       </c>
       <c r="H6">
-        <v>20.5377970505588</v>
+        <v>293.468933</v>
       </c>
       <c r="I6">
-        <v>0.1601144916294507</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="J6">
-        <v>0.1601144916294507</v>
+        <v>0.7034129241227491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.5884755452996</v>
+        <v>0.1685233333333334</v>
       </c>
       <c r="N6">
-        <v>4.5884755452996</v>
+        <v>0.5055700000000001</v>
       </c>
       <c r="O6">
-        <v>0.5465859877223104</v>
+        <v>0.009322086276897734</v>
       </c>
       <c r="P6">
-        <v>0.5465859877223104</v>
+        <v>0.009322086276897732</v>
       </c>
       <c r="Q6">
-        <v>94.23717952081532</v>
+        <v>16.48545427297889</v>
       </c>
       <c r="R6">
-        <v>94.23717952081532</v>
+        <v>148.36908845681</v>
       </c>
       <c r="S6">
-        <v>0.08751633755593893</v>
+        <v>0.006557275966957187</v>
       </c>
       <c r="T6">
-        <v>0.08751633755593893</v>
+        <v>0.006557275966957186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5377970505588</v>
+        <v>21.122106</v>
       </c>
       <c r="H7">
-        <v>20.5377970505588</v>
+        <v>63.36631800000001</v>
       </c>
       <c r="I7">
-        <v>0.1601144916294507</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="J7">
-        <v>0.1601144916294507</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86929795034105</v>
+        <v>13.34532166666667</v>
       </c>
       <c r="N7">
-        <v>1.86929795034105</v>
+        <v>40.035965</v>
       </c>
       <c r="O7">
-        <v>0.2226735342593485</v>
+        <v>0.7382137387678421</v>
       </c>
       <c r="P7">
-        <v>0.2226735342593485</v>
+        <v>0.7382137387678421</v>
       </c>
       <c r="Q7">
-        <v>38.39126193113003</v>
+        <v>281.8812988474301</v>
       </c>
       <c r="R7">
-        <v>38.39126193113003</v>
+        <v>2536.931689626871</v>
       </c>
       <c r="S7">
-        <v>0.03565325973726866</v>
+        <v>0.1121214760515624</v>
       </c>
       <c r="T7">
-        <v>0.03565325973726866</v>
+        <v>0.1121214760515624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.5377970505588</v>
+        <v>21.122106</v>
       </c>
       <c r="H8">
-        <v>20.5377970505588</v>
+        <v>63.36631800000001</v>
       </c>
       <c r="I8">
-        <v>0.1601144916294507</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="J8">
-        <v>0.1601144916294507</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.79241832736074</v>
+        <v>0.5919546666666666</v>
       </c>
       <c r="N8">
-        <v>1.79241832736074</v>
+        <v>1.775864</v>
       </c>
       <c r="O8">
-        <v>0.2135155199586167</v>
+        <v>0.03274473846161108</v>
       </c>
       <c r="P8">
-        <v>0.2135155199586167</v>
+        <v>0.03274473846161108</v>
       </c>
       <c r="Q8">
-        <v>36.81232383703694</v>
+        <v>12.503329216528</v>
       </c>
       <c r="R8">
-        <v>36.81232383703694</v>
+        <v>112.529962948752</v>
       </c>
       <c r="S8">
-        <v>0.03418692893317175</v>
+        <v>0.004973340668742012</v>
       </c>
       <c r="T8">
-        <v>0.03418692893317175</v>
+        <v>0.00497334066874201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.5377970505588</v>
+        <v>21.122106</v>
       </c>
       <c r="H9">
-        <v>20.5377970505588</v>
+        <v>63.36631800000001</v>
       </c>
       <c r="I9">
-        <v>0.1601144916294507</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="J9">
-        <v>0.1601144916294507</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.144599935968374</v>
+        <v>1.903091</v>
       </c>
       <c r="N9">
-        <v>0.144599935968374</v>
+        <v>5.709273</v>
       </c>
       <c r="O9">
-        <v>0.01722495805972437</v>
+        <v>0.1052719415399702</v>
       </c>
       <c r="P9">
-        <v>0.01722495805972437</v>
+        <v>0.1052719415399702</v>
       </c>
       <c r="Q9">
-        <v>2.969764138442263</v>
+        <v>40.197289829646</v>
       </c>
       <c r="R9">
-        <v>2.969764138442263</v>
+        <v>361.775608466814</v>
       </c>
       <c r="S9">
-        <v>0.002757965403071378</v>
+        <v>0.01598892685467508</v>
       </c>
       <c r="T9">
-        <v>0.002757965403071378</v>
+        <v>0.01598892685467508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.862648587152935</v>
+        <v>21.122106</v>
       </c>
       <c r="H10">
-        <v>0.862648587152935</v>
+        <v>63.36631800000001</v>
       </c>
       <c r="I10">
-        <v>0.006725285075455454</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="J10">
-        <v>0.006725285075455454</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.5884755452996</v>
+        <v>2.068965333333333</v>
       </c>
       <c r="N10">
-        <v>4.5884755452996</v>
+        <v>6.206896</v>
       </c>
       <c r="O10">
-        <v>0.5465859877223104</v>
+        <v>0.1144474949536789</v>
       </c>
       <c r="P10">
-        <v>0.5465859877223104</v>
+        <v>0.1144474949536789</v>
       </c>
       <c r="Q10">
-        <v>3.958241946338493</v>
+        <v>43.700905080992</v>
       </c>
       <c r="R10">
-        <v>3.958241946338493</v>
+        <v>393.3081457289281</v>
       </c>
       <c r="S10">
-        <v>0.003675946585681932</v>
+        <v>0.01738252946365944</v>
       </c>
       <c r="T10">
-        <v>0.003675946585681932</v>
+        <v>0.01738252946365944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.862648587152935</v>
+        <v>21.122106</v>
       </c>
       <c r="H11">
-        <v>0.862648587152935</v>
+        <v>63.36631800000001</v>
       </c>
       <c r="I11">
-        <v>0.006725285075455454</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="J11">
-        <v>0.006725285075455454</v>
+        <v>0.1518821313712004</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.86929795034105</v>
+        <v>0.1685233333333334</v>
       </c>
       <c r="N11">
-        <v>1.86929795034105</v>
+        <v>0.5055700000000001</v>
       </c>
       <c r="O11">
-        <v>0.2226735342593485</v>
+        <v>0.009322086276897734</v>
       </c>
       <c r="P11">
-        <v>0.2226735342593485</v>
+        <v>0.009322086276897732</v>
       </c>
       <c r="Q11">
-        <v>1.612547235829584</v>
+        <v>3.559567710140001</v>
       </c>
       <c r="R11">
-        <v>1.612547235829584</v>
+        <v>32.03610939126001</v>
       </c>
       <c r="S11">
-        <v>0.001497542996653315</v>
+        <v>0.001415858332561446</v>
       </c>
       <c r="T11">
-        <v>0.001497542996653315</v>
+        <v>0.001415858332561445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862648587152935</v>
+        <v>0.9873686666666667</v>
       </c>
       <c r="H12">
-        <v>0.862648587152935</v>
+        <v>2.962106</v>
       </c>
       <c r="I12">
-        <v>0.006725285075455454</v>
+        <v>0.007099843999574361</v>
       </c>
       <c r="J12">
-        <v>0.006725285075455454</v>
+        <v>0.00709984399957436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.79241832736074</v>
+        <v>13.34532166666667</v>
       </c>
       <c r="N12">
-        <v>1.79241832736074</v>
+        <v>40.035965</v>
       </c>
       <c r="O12">
-        <v>0.2135155199586167</v>
+        <v>0.7382137387678421</v>
       </c>
       <c r="P12">
-        <v>0.2135155199586167</v>
+        <v>0.7382137387678421</v>
       </c>
       <c r="Q12">
-        <v>1.546227137684769</v>
+        <v>13.17675246025445</v>
       </c>
       <c r="R12">
-        <v>1.546227137684769</v>
+        <v>118.59077214229</v>
       </c>
       <c r="S12">
-        <v>0.001435952739755796</v>
+        <v>0.005241202383594218</v>
       </c>
       <c r="T12">
-        <v>0.001435952739755796</v>
+        <v>0.005241202383594218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862648587152935</v>
+        <v>0.9873686666666667</v>
       </c>
       <c r="H13">
-        <v>0.862648587152935</v>
+        <v>2.962106</v>
       </c>
       <c r="I13">
-        <v>0.006725285075455454</v>
+        <v>0.007099843999574361</v>
       </c>
       <c r="J13">
-        <v>0.006725285075455454</v>
+        <v>0.00709984399957436</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.144599935968374</v>
+        <v>0.5919546666666666</v>
       </c>
       <c r="N13">
-        <v>0.144599935968374</v>
+        <v>1.775864</v>
       </c>
       <c r="O13">
-        <v>0.01722495805972437</v>
+        <v>0.03274473846161108</v>
       </c>
       <c r="P13">
-        <v>0.01722495805972437</v>
+        <v>0.03274473846161108</v>
       </c>
       <c r="Q13">
-        <v>0.1247389304655227</v>
+        <v>0.5844774899537778</v>
       </c>
       <c r="R13">
-        <v>0.1247389304655227</v>
+        <v>5.260297409583999</v>
       </c>
       <c r="S13">
-        <v>0.0001158427533644105</v>
+        <v>0.0002324825348843012</v>
       </c>
       <c r="T13">
-        <v>0.0001158427533644105</v>
+        <v>0.0002324825348843012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.3080741665787</v>
+        <v>0.9873686666666667</v>
       </c>
       <c r="H14">
-        <v>16.3080741665787</v>
+        <v>2.962106</v>
       </c>
       <c r="I14">
-        <v>0.127139196000872</v>
+        <v>0.007099843999574361</v>
       </c>
       <c r="J14">
-        <v>0.127139196000872</v>
+        <v>0.00709984399957436</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.5884755452996</v>
+        <v>1.903091</v>
       </c>
       <c r="N14">
-        <v>4.5884755452996</v>
+        <v>5.709273</v>
       </c>
       <c r="O14">
-        <v>0.5465859877223104</v>
+        <v>0.1052719415399702</v>
       </c>
       <c r="P14">
-        <v>0.5465859877223104</v>
+        <v>0.1052719415399702</v>
       </c>
       <c r="Q14">
-        <v>74.82919950427852</v>
+        <v>1.879052423215333</v>
       </c>
       <c r="R14">
-        <v>74.82919950427852</v>
+        <v>16.911471808938</v>
       </c>
       <c r="S14">
-        <v>0.06949250302435706</v>
+        <v>0.0007474143624661005</v>
       </c>
       <c r="T14">
-        <v>0.06949250302435706</v>
+        <v>0.0007474143624661004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.3080741665787</v>
+        <v>0.9873686666666667</v>
       </c>
       <c r="H15">
-        <v>16.3080741665787</v>
+        <v>2.962106</v>
       </c>
       <c r="I15">
-        <v>0.127139196000872</v>
+        <v>0.007099843999574361</v>
       </c>
       <c r="J15">
-        <v>0.127139196000872</v>
+        <v>0.00709984399957436</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.86929795034105</v>
+        <v>2.068965333333333</v>
       </c>
       <c r="N15">
-        <v>1.86929795034105</v>
+        <v>6.206896</v>
       </c>
       <c r="O15">
-        <v>0.2226735342593485</v>
+        <v>0.1144474949536789</v>
       </c>
       <c r="P15">
-        <v>0.2226735342593485</v>
+        <v>0.1144474949536789</v>
       </c>
       <c r="Q15">
-        <v>30.48464961359539</v>
+        <v>2.042831542552889</v>
       </c>
       <c r="R15">
-        <v>30.48464961359539</v>
+        <v>18.385483882976</v>
       </c>
       <c r="S15">
-        <v>0.0283105341164062</v>
+        <v>0.0008125593603131938</v>
       </c>
       <c r="T15">
-        <v>0.0283105341164062</v>
+        <v>0.0008125593603131937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.3080741665787</v>
+        <v>0.9873686666666667</v>
       </c>
       <c r="H16">
-        <v>16.3080741665787</v>
+        <v>2.962106</v>
       </c>
       <c r="I16">
-        <v>0.127139196000872</v>
+        <v>0.007099843999574361</v>
       </c>
       <c r="J16">
-        <v>0.127139196000872</v>
+        <v>0.00709984399957436</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.79241832736074</v>
+        <v>0.1685233333333334</v>
       </c>
       <c r="N16">
-        <v>1.79241832736074</v>
+        <v>0.5055700000000001</v>
       </c>
       <c r="O16">
-        <v>0.2135155199586167</v>
+        <v>0.009322086276897734</v>
       </c>
       <c r="P16">
-        <v>0.2135155199586167</v>
+        <v>0.009322086276897732</v>
       </c>
       <c r="Q16">
-        <v>29.23089102013389</v>
+        <v>0.1663946589355556</v>
       </c>
       <c r="R16">
-        <v>29.23089102013389</v>
+        <v>1.49755193042</v>
       </c>
       <c r="S16">
-        <v>0.02714619154124667</v>
+        <v>6.618535831654687E-05</v>
       </c>
       <c r="T16">
-        <v>0.02714619154124667</v>
+        <v>6.618535831654685E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.442225666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.326677</v>
+      </c>
+      <c r="I17">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="J17">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.34532166666667</v>
+      </c>
+      <c r="N17">
+        <v>40.035965</v>
+      </c>
+      <c r="O17">
+        <v>0.7382137387678421</v>
+      </c>
+      <c r="P17">
+        <v>0.7382137387678421</v>
+      </c>
+      <c r="Q17">
+        <v>19.24696543758945</v>
+      </c>
+      <c r="R17">
+        <v>173.222688938305</v>
+      </c>
+      <c r="S17">
+        <v>0.007655698278671418</v>
+      </c>
+      <c r="T17">
+        <v>0.007655698278671418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.442225666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.326677</v>
+      </c>
+      <c r="I18">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="J18">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.5919546666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.775864</v>
+      </c>
+      <c r="O18">
+        <v>0.03274473846161108</v>
+      </c>
+      <c r="P18">
+        <v>0.03274473846161108</v>
+      </c>
+      <c r="Q18">
+        <v>0.8537322137697777</v>
+      </c>
+      <c r="R18">
+        <v>7.683589923927999</v>
+      </c>
+      <c r="S18">
+        <v>0.0003395816478497405</v>
+      </c>
+      <c r="T18">
+        <v>0.0003395816478497405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.442225666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.326677</v>
+      </c>
+      <c r="I19">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="J19">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.903091</v>
+      </c>
+      <c r="N19">
+        <v>5.709273</v>
+      </c>
+      <c r="O19">
+        <v>0.1052719415399702</v>
+      </c>
+      <c r="P19">
+        <v>0.1052719415399702</v>
+      </c>
+      <c r="Q19">
+        <v>2.744686686202333</v>
+      </c>
+      <c r="R19">
+        <v>24.702180175821</v>
+      </c>
+      <c r="S19">
+        <v>0.001091730185061487</v>
+      </c>
+      <c r="T19">
+        <v>0.001091730185061487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.442225666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.326677</v>
+      </c>
+      <c r="I20">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="J20">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.068965333333333</v>
+      </c>
+      <c r="N20">
+        <v>6.206896</v>
+      </c>
+      <c r="O20">
+        <v>0.1144474949536789</v>
+      </c>
+      <c r="P20">
+        <v>0.1144474949536789</v>
+      </c>
+      <c r="Q20">
+        <v>2.983914907176889</v>
+      </c>
+      <c r="R20">
+        <v>26.855234164592</v>
+      </c>
+      <c r="S20">
+        <v>0.00118688591677739</v>
+      </c>
+      <c r="T20">
+        <v>0.00118688591677739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.442225666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.326677</v>
+      </c>
+      <c r="I21">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="J21">
+        <v>0.01037057138959456</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1685233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.5055700000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.009322086276897734</v>
+      </c>
+      <c r="P21">
+        <v>0.009322086276897732</v>
+      </c>
+      <c r="Q21">
+        <v>0.2430486767655556</v>
+      </c>
+      <c r="R21">
+        <v>2.18743809089</v>
+      </c>
+      <c r="S21">
+        <v>9.667536123452774E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.667536123452773E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.7050393333333332</v>
+      </c>
+      <c r="H22">
+        <v>2.115118</v>
+      </c>
+      <c r="I22">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="J22">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.34532166666667</v>
+      </c>
+      <c r="N22">
+        <v>40.035965</v>
+      </c>
+      <c r="O22">
+        <v>0.7382137387678421</v>
+      </c>
+      <c r="P22">
+        <v>0.7382137387678421</v>
+      </c>
+      <c r="Q22">
+        <v>9.408976690985556</v>
+      </c>
+      <c r="R22">
+        <v>84.68079021887</v>
+      </c>
+      <c r="S22">
+        <v>0.003742526939678402</v>
+      </c>
+      <c r="T22">
+        <v>0.003742526939678402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.7050393333333332</v>
+      </c>
+      <c r="H23">
+        <v>2.115118</v>
+      </c>
+      <c r="I23">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="J23">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.5919546666666666</v>
+      </c>
+      <c r="N23">
+        <v>1.775864</v>
+      </c>
+      <c r="O23">
+        <v>0.03274473846161108</v>
+      </c>
+      <c r="P23">
+        <v>0.03274473846161108</v>
+      </c>
+      <c r="Q23">
+        <v>0.4173513235502221</v>
+      </c>
+      <c r="R23">
+        <v>3.756161911951999</v>
+      </c>
+      <c r="S23">
+        <v>0.000166006211195485</v>
+      </c>
+      <c r="T23">
+        <v>0.000166006211195485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>16.3080741665787</v>
-      </c>
-      <c r="H17">
-        <v>16.3080741665787</v>
-      </c>
-      <c r="I17">
-        <v>0.127139196000872</v>
-      </c>
-      <c r="J17">
-        <v>0.127139196000872</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.144599935968374</v>
-      </c>
-      <c r="N17">
-        <v>0.144599935968374</v>
-      </c>
-      <c r="O17">
-        <v>0.01722495805972437</v>
-      </c>
-      <c r="P17">
-        <v>0.01722495805972437</v>
-      </c>
-      <c r="Q17">
-        <v>2.358146480254774</v>
-      </c>
-      <c r="R17">
-        <v>2.358146480254774</v>
-      </c>
-      <c r="S17">
-        <v>0.002189967318862097</v>
-      </c>
-      <c r="T17">
-        <v>0.002189967318862097</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.7050393333333332</v>
+      </c>
+      <c r="H24">
+        <v>2.115118</v>
+      </c>
+      <c r="I24">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="J24">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.903091</v>
+      </c>
+      <c r="N24">
+        <v>5.709273</v>
+      </c>
+      <c r="O24">
+        <v>0.1052719415399702</v>
+      </c>
+      <c r="P24">
+        <v>0.1052719415399702</v>
+      </c>
+      <c r="Q24">
+        <v>1.341754009912667</v>
+      </c>
+      <c r="R24">
+        <v>12.075786089214</v>
+      </c>
+      <c r="S24">
+        <v>0.0005336978391423444</v>
+      </c>
+      <c r="T24">
+        <v>0.0005336978391423444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.7050393333333332</v>
+      </c>
+      <c r="H25">
+        <v>2.115118</v>
+      </c>
+      <c r="I25">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="J25">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.068965333333333</v>
+      </c>
+      <c r="N25">
+        <v>6.206896</v>
+      </c>
+      <c r="O25">
+        <v>0.1144474949536789</v>
+      </c>
+      <c r="P25">
+        <v>0.1144474949536789</v>
+      </c>
+      <c r="Q25">
+        <v>1.458701939303111</v>
+      </c>
+      <c r="R25">
+        <v>13.128317453728</v>
+      </c>
+      <c r="S25">
+        <v>0.0005802152013016825</v>
+      </c>
+      <c r="T25">
+        <v>0.0005802152013016825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7050393333333332</v>
+      </c>
+      <c r="H26">
+        <v>2.115118</v>
+      </c>
+      <c r="I26">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="J26">
+        <v>0.005069706432076273</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1685233333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.5055700000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.009322086276897734</v>
+      </c>
+      <c r="P26">
+        <v>0.009322086276897732</v>
+      </c>
+      <c r="Q26">
+        <v>0.1188155785844444</v>
+      </c>
+      <c r="R26">
+        <v>1.06934020726</v>
+      </c>
+      <c r="S26">
+        <v>4.72602407583584E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.726024075835838E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>16.98934766666667</v>
+      </c>
+      <c r="H27">
+        <v>50.968043</v>
+      </c>
+      <c r="I27">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="J27">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.34532166666667</v>
+      </c>
+      <c r="N27">
+        <v>40.035965</v>
+      </c>
+      <c r="O27">
+        <v>0.7382137387678421</v>
+      </c>
+      <c r="P27">
+        <v>0.7382137387678421</v>
+      </c>
+      <c r="Q27">
+        <v>226.7283095184995</v>
+      </c>
+      <c r="R27">
+        <v>2040.554785666495</v>
+      </c>
+      <c r="S27">
+        <v>0.09018375050006064</v>
+      </c>
+      <c r="T27">
+        <v>0.09018375050006064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>16.98934766666667</v>
+      </c>
+      <c r="H28">
+        <v>50.968043</v>
+      </c>
+      <c r="I28">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="J28">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.5919546666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.775864</v>
+      </c>
+      <c r="O28">
+        <v>0.03274473846161108</v>
+      </c>
+      <c r="P28">
+        <v>0.03274473846161108</v>
+      </c>
+      <c r="Q28">
+        <v>10.05692363490578</v>
+      </c>
+      <c r="R28">
+        <v>90.512312714152</v>
+      </c>
+      <c r="S28">
+        <v>0.004000255168023043</v>
+      </c>
+      <c r="T28">
+        <v>0.004000255168023043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>16.98934766666667</v>
+      </c>
+      <c r="H29">
+        <v>50.968043</v>
+      </c>
+      <c r="I29">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="J29">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.903091</v>
+      </c>
+      <c r="N29">
+        <v>5.709273</v>
+      </c>
+      <c r="O29">
+        <v>0.1052719415399702</v>
+      </c>
+      <c r="P29">
+        <v>0.1052719415399702</v>
+      </c>
+      <c r="Q29">
+        <v>32.33227464030433</v>
+      </c>
+      <c r="R29">
+        <v>290.990471762739</v>
+      </c>
+      <c r="S29">
+        <v>0.01286052807191566</v>
+      </c>
+      <c r="T29">
+        <v>0.01286052807191566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>16.98934766666667</v>
+      </c>
+      <c r="H30">
+        <v>50.968043</v>
+      </c>
+      <c r="I30">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="J30">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.068965333333333</v>
+      </c>
+      <c r="N30">
+        <v>6.206896</v>
+      </c>
+      <c r="O30">
+        <v>0.1144474949536789</v>
+      </c>
+      <c r="P30">
+        <v>0.1144474949536789</v>
+      </c>
+      <c r="Q30">
+        <v>35.15037135828089</v>
+      </c>
+      <c r="R30">
+        <v>316.353342224528</v>
+      </c>
+      <c r="S30">
+        <v>0.01398145792773633</v>
+      </c>
+      <c r="T30">
+        <v>0.01398145792773633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>16.98934766666667</v>
+      </c>
+      <c r="H31">
+        <v>50.968043</v>
+      </c>
+      <c r="I31">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="J31">
+        <v>0.1221648226848053</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1685233333333334</v>
+      </c>
+      <c r="N31">
+        <v>0.5055700000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.009322086276897734</v>
+      </c>
+      <c r="P31">
+        <v>0.009322086276897732</v>
+      </c>
+      <c r="Q31">
+        <v>2.863101499945556</v>
+      </c>
+      <c r="R31">
+        <v>25.76791349951</v>
+      </c>
+      <c r="S31">
+        <v>0.001138831017069669</v>
+      </c>
+      <c r="T31">
+        <v>0.001138831017069668</v>
       </c>
     </row>
   </sheetData>
